--- a/hot-dog-survey-data/fa25/Is hotdog a sandwich_ (Responses).xlsx
+++ b/hot-dog-survey-data/fa25/Is hotdog a sandwich_ (Responses).xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gates\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2AF6B96D-27F2-43E9-80DE-D9207A7598B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Form Responses 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -16,33 +25,34 @@
     <t>Timestamp</t>
   </si>
   <si>
-    <t>What year are you in?</t>
-  </si>
-  <si>
-    <t>Is hotdog a sandwich?</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
     <t>No</t>
   </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Response</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy h:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -53,11 +63,17 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="13">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF442F65"/>
@@ -71,6 +87,7 @@
       <bottom style="thin">
         <color rgb="FF442F65"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -85,6 +102,7 @@
       <bottom style="thin">
         <color rgb="FF442F65"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -99,6 +117,7 @@
       <bottom style="thin">
         <color rgb="FF442F65"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -113,6 +132,7 @@
       <bottom style="thin">
         <color rgb="FFFFFFFF"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -127,6 +147,7 @@
       <bottom style="thin">
         <color rgb="FFFFFFFF"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -141,6 +162,7 @@
       <bottom style="thin">
         <color rgb="FFFFFFFF"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -155,6 +177,7 @@
       <bottom style="thin">
         <color rgb="FFF8F9FA"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -169,6 +192,7 @@
       <bottom style="thin">
         <color rgb="FFF8F9FA"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -183,6 +207,7 @@
       <bottom style="thin">
         <color rgb="FFF8F9FA"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -197,6 +222,7 @@
       <bottom style="thin">
         <color rgb="FF442F65"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -211,6 +237,7 @@
       <bottom style="thin">
         <color rgb="FF442F65"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -225,121 +252,111 @@
       <bottom style="thin">
         <color rgb="FF442F65"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="3">
     <dxf>
-      <font/>
       <fill>
-        <patternFill patternType="none"/>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF8F9FA"/>
+          <bgColor rgb="FFF8F9FA"/>
+        </patternFill>
       </fill>
-      <border/>
     </dxf>
     <dxf>
-      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF5B3F86"/>
           <bgColor rgb="FF5B3F86"/>
         </patternFill>
       </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF8F9FA"/>
-          <bgColor rgb="FFF8F9FA"/>
-        </patternFill>
-      </fill>
-      <border/>
     </dxf>
   </dxfs>
   <tableStyles count="1">
-    <tableStyle count="3" pivot="0" name="Form Responses 1-style">
-      <tableStyleElement dxfId="1" type="headerRow"/>
-      <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="3" type="secondRowStripe"/>
+    <tableStyle name="Form Responses 1-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+      <tableStyleElement type="headerRow" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:C208" displayName="Form_Responses" name="Form_Responses" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses" displayName="Form_Responses" ref="A1:C208">
   <tableColumns count="3">
-    <tableColumn name="Timestamp" id="1"/>
-    <tableColumn name="What year are you in?" id="2"/>
-    <tableColumn name="Is hotdog a sandwich?" id="3"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Timestamp"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Year"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Response"/>
   </tableColumns>
-  <tableStyleInfo name="Form Responses 1-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="Form Responses 1-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -529,2320 +546,2326 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C208"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D207" sqref="D207"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="18.88"/>
-    <col customWidth="1" min="2" max="2" width="20.75"/>
-    <col customWidth="1" min="3" max="3" width="21.63"/>
-    <col customWidth="1" min="4" max="9" width="18.88"/>
+    <col min="1" max="1" width="18.90625" customWidth="1"/>
+    <col min="2" max="2" width="20.7265625" customWidth="1"/>
+    <col min="3" max="3" width="21.6328125" customWidth="1"/>
+    <col min="4" max="4" width="18.90625" customWidth="1"/>
+    <col min="5" max="5" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="18.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>45898.72079423611</v>
+        <v>45898.720794236113</v>
       </c>
       <c r="B2" s="5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>45898.773005243056</v>
       </c>
       <c r="B3" s="8">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>45898.77301394676</v>
       </c>
       <c r="B4" s="5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
-        <v>45898.77324805556</v>
+        <v>45898.773248055557</v>
       </c>
       <c r="B5" s="8">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>45898.77339391204</v>
+        <v>45898.773393912037</v>
       </c>
       <c r="B6" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
-        <v>45898.77383611111</v>
+        <v>45898.773836111111</v>
       </c>
       <c r="B7" s="8">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>45898.77418046296</v>
+        <v>45898.774180462962</v>
       </c>
       <c r="B8" s="5">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
-        <v>45898.774316875</v>
+        <v>45898.774316875002</v>
       </c>
       <c r="B9" s="8">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <v>45898.78066020833</v>
+        <v>45898.780660208329</v>
       </c>
       <c r="B10" s="5">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>45898.798119652776</v>
       </c>
       <c r="B11" s="8">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>45898.799887581015</v>
       </c>
       <c r="B12" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
-        <v>45898.81111513889</v>
+        <v>45898.811115138888</v>
       </c>
       <c r="B13" s="8">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
-        <v>45898.81454115741</v>
+        <v>45898.814541157408</v>
       </c>
       <c r="B14" s="5">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
-        <v>45898.81489166667</v>
+        <v>45898.814891666669</v>
       </c>
       <c r="B15" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>45898.84560453704</v>
       </c>
       <c r="B16" s="5">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>45898.921693553246</v>
       </c>
       <c r="B17" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>45898.965013333334</v>
       </c>
       <c r="B18" s="5">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>45899.606007650465</v>
       </c>
       <c r="B19" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
-        <v>45899.76433385417</v>
+        <v>45899.764333854167</v>
       </c>
       <c r="B20" s="5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
-        <v>45899.76705458333</v>
+        <v>45899.767054583332</v>
       </c>
       <c r="B21" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
-        <v>45899.76771118055</v>
+        <v>45899.767711180553</v>
       </c>
       <c r="B22" s="5">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
-        <v>45899.81786782407</v>
+        <v>45899.817867824073</v>
       </c>
       <c r="B23" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>45899.84049751157</v>
       </c>
       <c r="B24" s="5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>45899.91507422454</v>
       </c>
       <c r="B25" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>45900.348979780094</v>
       </c>
       <c r="B26" s="5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>45900.413897708335</v>
       </c>
       <c r="B27" s="8">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
-        <v>45900.41392918982</v>
+        <v>45900.413929189817</v>
       </c>
       <c r="B28" s="5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>45900.413943657404</v>
       </c>
       <c r="B29" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
-        <v>45900.41394559028</v>
+        <v>45900.413945590277</v>
       </c>
       <c r="B30" s="5">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
-        <v>45900.41449430556</v>
+        <v>45900.414494305558</v>
       </c>
       <c r="B31" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>45900.415025821756</v>
       </c>
       <c r="B32" s="5">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
-        <v>45900.41820240741</v>
+        <v>45900.418202407411</v>
       </c>
       <c r="B33" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
-        <v>45900.41853672454</v>
+        <v>45900.418536724537</v>
       </c>
       <c r="B34" s="5">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
-        <v>45900.4186166088</v>
+        <v>45900.418616608797</v>
       </c>
       <c r="B35" s="8">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
-        <v>45900.41883708333</v>
+        <v>45900.418837083329</v>
       </c>
       <c r="B36" s="5">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
-        <v>45900.41898891203</v>
+        <v>45900.418988912032</v>
       </c>
       <c r="B37" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
-        <v>45900.41973146991</v>
+        <v>45900.419731469912</v>
       </c>
       <c r="B38" s="5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
-        <v>45900.42007153935</v>
+        <v>45900.420071539353</v>
       </c>
       <c r="B39" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>45900.421191643516</v>
       </c>
       <c r="B40" s="5">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A41" s="7">
         <v>45900.423515497685</v>
       </c>
       <c r="B41" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>45900.425610081016</v>
       </c>
       <c r="B42" s="5">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
-        <v>45900.42722803241</v>
+        <v>45900.427228032408</v>
       </c>
       <c r="B43" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
-        <v>45900.42865894676</v>
+        <v>45900.428658946759</v>
       </c>
       <c r="B44" s="5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A45" s="7">
-        <v>45900.43219452546</v>
+        <v>45900.432194525463</v>
       </c>
       <c r="B45" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
-        <v>45900.43353688657</v>
+        <v>45900.433536886572</v>
       </c>
       <c r="B46" s="5">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A47" s="7">
-        <v>45900.44534494213</v>
+        <v>45900.445344942127</v>
       </c>
       <c r="B47" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
-        <v>45900.44755085648</v>
+        <v>45900.447550856479</v>
       </c>
       <c r="B48" s="5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A49" s="7">
         <v>45900.447805497686</v>
       </c>
       <c r="B49" s="8">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
-        <v>45900.44902212963</v>
+        <v>45900.449022129629</v>
       </c>
       <c r="B50" s="5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A51" s="7">
-        <v>45900.45148480324</v>
+        <v>45900.451484803241</v>
       </c>
       <c r="B51" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>45900.45726894676</v>
       </c>
       <c r="B52" s="5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A53" s="7">
         <v>45900.45766428241</v>
       </c>
       <c r="B53" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>45900.460996215275</v>
       </c>
       <c r="B54" s="5">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A55" s="7">
-        <v>45900.46255273148</v>
+        <v>45900.462552731478</v>
       </c>
       <c r="B55" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>45900.463578055555</v>
       </c>
       <c r="B56" s="5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A57" s="7">
-        <v>45900.4656781713</v>
+        <v>45900.465678171298</v>
       </c>
       <c r="B57" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
-        <v>45900.46603730324</v>
+        <v>45900.466037303238</v>
       </c>
       <c r="B58" s="5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A59" s="7">
-        <v>45900.46638865741</v>
+        <v>45900.466388657413</v>
       </c>
       <c r="B59" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>45900.467361365736</v>
       </c>
       <c r="B60" s="5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A61" s="7">
-        <v>45900.47939486111</v>
+        <v>45900.479394861111</v>
       </c>
       <c r="B61" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
-        <v>45900.47979672454</v>
+        <v>45900.479796724539</v>
       </c>
       <c r="B62" s="5">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A63" s="7">
-        <v>45900.47984695602</v>
+        <v>45900.479846956019</v>
       </c>
       <c r="B63" s="8">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>45900.480138645835</v>
       </c>
       <c r="B64" s="5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A65" s="7">
         <v>45900.492976168985</v>
       </c>
       <c r="B65" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
-        <v>45900.4935034375</v>
+        <v>45900.493503437501</v>
       </c>
       <c r="B66" s="5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A67" s="7">
-        <v>45900.4938543287</v>
+        <v>45900.493854328699</v>
       </c>
       <c r="B67" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
-        <v>45900.49385915509</v>
+        <v>45900.493859155089</v>
       </c>
       <c r="B68" s="5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A69" s="7">
         <v>45900.493906874995</v>
       </c>
       <c r="B69" s="8">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <v>45900.493935914354</v>
       </c>
       <c r="B70" s="5">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A71" s="7">
-        <v>45900.49577127315</v>
+        <v>45900.495771273148</v>
       </c>
       <c r="B71" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
-        <v>45900.5004953125</v>
+        <v>45900.500495312503</v>
       </c>
       <c r="B72" s="5">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A73" s="7">
-        <v>45900.50290607639</v>
+        <v>45900.502906076392</v>
       </c>
       <c r="B73" s="8">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <v>45900.51563981481</v>
       </c>
       <c r="B74" s="5">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A75" s="7">
-        <v>45900.51741954861</v>
+        <v>45900.517419548611</v>
       </c>
       <c r="B75" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
-        <v>45900.5209449074</v>
+        <v>45900.520944907403</v>
       </c>
       <c r="B76" s="5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A77" s="7">
-        <v>45900.54889603009</v>
+        <v>45900.548896030094</v>
       </c>
       <c r="B77" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
-        <v>45900.5502341088</v>
+        <v>45900.550234108799</v>
       </c>
       <c r="B78" s="5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A79" s="7">
         <v>45900.550649791665</v>
       </c>
       <c r="B79" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
-        <v>45900.55187846065</v>
+        <v>45900.551878460647</v>
       </c>
       <c r="B80" s="5">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A81" s="7">
-        <v>45900.55758982639</v>
+        <v>45900.557589826392</v>
       </c>
       <c r="B81" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <v>45900.559408773144</v>
       </c>
       <c r="B82" s="5">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A83" s="7">
         <v>45900.57665747685</v>
       </c>
       <c r="B83" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
-        <v>45900.59294202546</v>
+        <v>45900.592942025462</v>
       </c>
       <c r="B84" s="5">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A85" s="7">
-        <v>45900.5959315162</v>
+        <v>45900.595931516204</v>
       </c>
       <c r="B85" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
-        <v>45900.59602211806</v>
+        <v>45900.596022118058</v>
       </c>
       <c r="B86" s="5">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A87" s="7">
-        <v>45900.59637177084</v>
+        <v>45900.596371770836</v>
       </c>
       <c r="B87" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <v>45900.597008275465</v>
       </c>
       <c r="B88" s="5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A89" s="7">
-        <v>45900.59803579861</v>
+        <v>45900.598035798612</v>
       </c>
       <c r="B89" s="8">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
-        <v>45900.60097449074</v>
+        <v>45900.600974490742</v>
       </c>
       <c r="B90" s="5">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A91" s="7">
-        <v>45900.60434263889</v>
+        <v>45900.604342638893</v>
       </c>
       <c r="B91" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <v>45900.604876157406</v>
       </c>
       <c r="B92" s="5">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A93" s="7">
-        <v>45900.61392539352</v>
+        <v>45900.613925393518</v>
       </c>
       <c r="B93" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
-        <v>45900.62090241898</v>
+        <v>45900.620902418981</v>
       </c>
       <c r="B94" s="5">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A95" s="7">
-        <v>45900.62103542824</v>
+        <v>45900.621035428238</v>
       </c>
       <c r="B95" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
-        <v>45900.64131717593</v>
+        <v>45900.641317175927</v>
       </c>
       <c r="B96" s="5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A97" s="7">
-        <v>45900.65293090278</v>
+        <v>45900.652930902783</v>
       </c>
       <c r="B97" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
-        <v>45900.65508098379</v>
+        <v>45900.655080983794</v>
       </c>
       <c r="B98" s="5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A99" s="7">
         <v>45900.655434201384</v>
       </c>
       <c r="B99" s="8">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
         <v>45900.655442511576</v>
       </c>
       <c r="B100" s="5">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A101" s="7">
-        <v>45900.65574981482</v>
+        <v>45900.655749814818</v>
       </c>
       <c r="B101" s="8">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
         <v>45900.656287881946</v>
       </c>
       <c r="B102" s="5">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A103" s="7">
         <v>45900.656684699075</v>
       </c>
       <c r="B103" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
         <v>45900.656930868055</v>
       </c>
       <c r="B104" s="5">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A105" s="7">
         <v>45900.657257349536</v>
       </c>
       <c r="B105" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
         <v>45900.657263229165</v>
       </c>
       <c r="B106" s="5">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="107">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A107" s="7">
-        <v>45900.65757696759</v>
+        <v>45900.657576967591</v>
       </c>
       <c r="B107" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
         <v>45900.657828958334</v>
       </c>
       <c r="B108" s="5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A109" s="7">
-        <v>45900.65802870371</v>
+        <v>45900.658028703707</v>
       </c>
       <c r="B109" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A110" s="4">
         <v>45900.659242650465</v>
       </c>
       <c r="B110" s="5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A111" s="7">
-        <v>45900.66164851852</v>
+        <v>45900.661648518522</v>
       </c>
       <c r="B111" s="8">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="112">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A112" s="4">
-        <v>45900.66577104166</v>
+        <v>45900.665771041662</v>
       </c>
       <c r="B112" s="5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A113" s="7">
         <v>45900.67255905093</v>
       </c>
       <c r="B113" s="8">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="114">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A114" s="4">
-        <v>45900.67311458333</v>
+        <v>45900.673114583333</v>
       </c>
       <c r="B114" s="5">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A115" s="7">
-        <v>45900.67621709491</v>
+        <v>45900.676217094908</v>
       </c>
       <c r="B115" s="8">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A116" s="4">
-        <v>45900.67756247685</v>
+        <v>45900.677562476849</v>
       </c>
       <c r="B116" s="5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A117" s="7">
-        <v>45900.69678597222</v>
+        <v>45900.696785972221</v>
       </c>
       <c r="B117" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A118" s="4">
-        <v>45900.69681518518</v>
+        <v>45900.696815185183</v>
       </c>
       <c r="B118" s="5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A119" s="7">
-        <v>45900.70890864583</v>
+        <v>45900.708908645829</v>
       </c>
       <c r="B119" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A120" s="4">
-        <v>45900.70906825231</v>
+        <v>45900.709068252312</v>
       </c>
       <c r="B120" s="5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="121">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A121" s="7">
-        <v>45900.71203648148</v>
+        <v>45900.712036481476</v>
       </c>
       <c r="B121" s="8">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C121" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="122">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A122" s="4">
-        <v>45900.72447204861</v>
+        <v>45900.724472048612</v>
       </c>
       <c r="B122" s="5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A123" s="7">
         <v>45900.728667766205</v>
       </c>
       <c r="B123" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C123" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A124" s="4">
         <v>45900.73493712963</v>
       </c>
       <c r="B124" s="5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A125" s="7">
         <v>45900.738959317125</v>
       </c>
       <c r="B125" s="8">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="126">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A126" s="4">
-        <v>45900.74106721065</v>
+        <v>45900.741067210649</v>
       </c>
       <c r="B126" s="5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="127">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A127" s="7">
-        <v>45900.74331181713</v>
+        <v>45900.743311817132</v>
       </c>
       <c r="B127" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A128" s="4">
-        <v>45900.75656666666</v>
+        <v>45900.756566666663</v>
       </c>
       <c r="B128" s="5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="129">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A129" s="7">
-        <v>45900.75658518518</v>
+        <v>45900.756585185183</v>
       </c>
       <c r="B129" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C129" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="130">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A130" s="4">
-        <v>45900.75662310186</v>
+        <v>45900.756623101857</v>
       </c>
       <c r="B130" s="5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="131">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A131" s="7">
-        <v>45900.76266462963</v>
+        <v>45900.762664629627</v>
       </c>
       <c r="B131" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C131" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="132">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A132" s="4">
-        <v>45900.77112451389</v>
+        <v>45900.771124513893</v>
       </c>
       <c r="B132" s="5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="133">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A133" s="7">
-        <v>45900.78112021991</v>
+        <v>45900.781120219908</v>
       </c>
       <c r="B133" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A134" s="4">
-        <v>45900.79410677083</v>
+        <v>45900.794106770831</v>
       </c>
       <c r="B134" s="5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="135">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A135" s="7">
-        <v>45900.79467884259</v>
+        <v>45900.794678842591</v>
       </c>
       <c r="B135" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C135" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="136">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A136" s="4">
         <v>45900.812913483795</v>
       </c>
       <c r="B136" s="5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="137">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A137" s="7">
-        <v>45900.82699930556</v>
+        <v>45900.826999305558</v>
       </c>
       <c r="B137" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C137" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="138">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A138" s="4">
-        <v>45900.8689624074</v>
+        <v>45900.868962407403</v>
       </c>
       <c r="B138" s="5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A139" s="7">
         <v>45900.874168124996</v>
       </c>
       <c r="B139" s="8">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C139" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="140">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A140" s="4">
         <v>45900.879214444445</v>
       </c>
       <c r="B140" s="5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C140" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="141">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A141" s="7">
-        <v>45900.87930569444</v>
+        <v>45900.879305694441</v>
       </c>
       <c r="B141" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C141" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="142">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A142" s="4">
         <v>45900.890179560185</v>
       </c>
       <c r="B142" s="5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="143">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A143" s="7">
         <v>45900.893470509254</v>
       </c>
       <c r="B143" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C143" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="144">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A144" s="4">
-        <v>45900.90565234954</v>
+        <v>45900.905652349538</v>
       </c>
       <c r="B144" s="5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="145">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A145" s="7">
-        <v>45900.92198085648</v>
+        <v>45900.921980856481</v>
       </c>
       <c r="B145" s="8">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C145" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="146">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A146" s="4">
-        <v>45900.92521760416</v>
+        <v>45900.925217604163</v>
       </c>
       <c r="B146" s="5">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="147">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A147" s="7">
-        <v>45900.93186494213</v>
+        <v>45900.931864942133</v>
       </c>
       <c r="B147" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C147" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="148">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A148" s="4">
-        <v>45900.93381747685</v>
+        <v>45900.933817476849</v>
       </c>
       <c r="B148" s="5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A149" s="7">
-        <v>45900.93897836805</v>
+        <v>45900.938978368053</v>
       </c>
       <c r="B149" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C149" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="150">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A150" s="4">
-        <v>45900.93971247685</v>
+        <v>45900.939712476851</v>
       </c>
       <c r="B150" s="5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="151">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A151" s="7">
-        <v>45900.94581122685</v>
+        <v>45900.945811226848</v>
       </c>
       <c r="B151" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C151" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A152" s="4">
-        <v>45900.96163962963</v>
+        <v>45900.961639629633</v>
       </c>
       <c r="B152" s="5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="153">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A153" s="7">
         <v>45900.962737002315</v>
       </c>
       <c r="B153" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C153" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="154">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A154" s="4">
-        <v>45900.96305569445</v>
+        <v>45900.963055694447</v>
       </c>
       <c r="B154" s="5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C154" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A155" s="7">
         <v>45900.963165775465</v>
       </c>
       <c r="B155" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C155" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="156">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A156" s="4">
         <v>45900.964114375005</v>
       </c>
       <c r="B156" s="5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="157">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A157" s="7">
         <v>45900.964619861115</v>
       </c>
       <c r="B157" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C157" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="158">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A158" s="4">
-        <v>45900.96628217593</v>
+        <v>45900.966282175927</v>
       </c>
       <c r="B158" s="5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A159" s="7">
         <v>45900.966934525466</v>
       </c>
       <c r="B159" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C159" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A160" s="4">
         <v>45900.96840179398</v>
       </c>
       <c r="B160" s="5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="161">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A161" s="7">
-        <v>45900.98104141204</v>
+        <v>45900.981041412037</v>
       </c>
       <c r="B161" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C161" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="162">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A162" s="4">
-        <v>45900.98297415509</v>
+        <v>45900.982974155093</v>
       </c>
       <c r="B162" s="5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="163">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A163" s="7">
-        <v>45900.99103603009</v>
+        <v>45900.991036030093</v>
       </c>
       <c r="B163" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C163" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A164" s="4">
         <v>45901.03075755787</v>
       </c>
       <c r="B164" s="5">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C164" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="165">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A165" s="7">
-        <v>45901.03250489583</v>
+        <v>45901.032504895833</v>
       </c>
       <c r="B165" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C165" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="166">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A166" s="4">
-        <v>45901.03537232639</v>
+        <v>45901.035372326391</v>
       </c>
       <c r="B166" s="5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C166" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A167" s="7">
-        <v>45901.04966787037</v>
+        <v>45901.049667870371</v>
       </c>
       <c r="B167" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C167" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="168">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A168" s="4">
-        <v>45901.14003548611</v>
+        <v>45901.140035486111</v>
       </c>
       <c r="B168" s="5">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C168" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="169">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A169" s="7">
         <v>45901.310162222224</v>
       </c>
       <c r="B169" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C169" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="170">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A170" s="4">
-        <v>45901.37417627315</v>
+        <v>45901.374176273152</v>
       </c>
       <c r="B170" s="5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C170" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="171">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A171" s="7">
-        <v>45901.37557826389</v>
+        <v>45901.375578263891</v>
       </c>
       <c r="B171" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C171" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A172" s="4">
-        <v>45901.42063275463</v>
+        <v>45901.420632754627</v>
       </c>
       <c r="B172" s="5">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C172" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="173">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A173" s="7">
         <v>45901.421030682875</v>
       </c>
       <c r="B173" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C173" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A174" s="4">
         <v>45901.421509872685</v>
       </c>
       <c r="B174" s="5">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C174" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="175">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A175" s="7">
-        <v>45901.42174534722</v>
+        <v>45901.421745347223</v>
       </c>
       <c r="B175" s="8">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C175" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="176">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A176" s="4">
         <v>45901.421850011575</v>
       </c>
       <c r="B176" s="5">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C176" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="177">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A177" s="7">
-        <v>45901.42355274306</v>
+        <v>45901.423552743057</v>
       </c>
       <c r="B177" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C177" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A178" s="4">
-        <v>45901.4251869213</v>
+        <v>45901.425186921297</v>
       </c>
       <c r="B178" s="5">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C178" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="179">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A179" s="7">
-        <v>45901.43244549769</v>
+        <v>45901.432445497689</v>
       </c>
       <c r="B179" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C179" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A180" s="4">
-        <v>45901.43250804398</v>
+        <v>45901.432508043981</v>
       </c>
       <c r="B180" s="5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C180" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="181">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A181" s="7">
         <v>45901.43294885417</v>
       </c>
       <c r="B181" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C181" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="182">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A182" s="4">
-        <v>45901.43658984954</v>
+        <v>45901.436589849538</v>
       </c>
       <c r="B182" s="5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C182" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="183">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A183" s="7">
-        <v>45901.43798270833</v>
+        <v>45901.437982708332</v>
       </c>
       <c r="B183" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C183" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A184" s="4">
-        <v>45901.43804422454</v>
+        <v>45901.438044224538</v>
       </c>
       <c r="B184" s="5">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C184" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="185">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A185" s="7">
         <v>45901.438120879626</v>
       </c>
       <c r="B185" s="8">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C185" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A186" s="4">
-        <v>45901.4381713426</v>
+        <v>45901.438171342597</v>
       </c>
       <c r="B186" s="5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C186" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="187">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A187" s="7">
         <v>45901.438223206016</v>
       </c>
       <c r="B187" s="8">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C187" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="188">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A188" s="4">
-        <v>45901.44169815972</v>
+        <v>45901.441698159717</v>
       </c>
       <c r="B188" s="5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C188" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="189">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A189" s="7">
-        <v>45901.44243199074</v>
+        <v>45901.442431990741</v>
       </c>
       <c r="B189" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C189" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="190">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A190" s="4">
-        <v>45901.44961916667</v>
+        <v>45901.449619166669</v>
       </c>
       <c r="B190" s="5">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C190" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="191">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A191" s="7">
         <v>45901.455148124995</v>
       </c>
       <c r="B191" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C191" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="192">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A192" s="4">
-        <v>45901.45606145833</v>
+        <v>45901.456061458332</v>
       </c>
       <c r="B192" s="5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C192" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="193">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A193" s="7">
-        <v>45901.45633671296</v>
+        <v>45901.456336712959</v>
       </c>
       <c r="B193" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C193" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="194">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A194" s="4">
-        <v>45901.47662619213</v>
+        <v>45901.476626192132</v>
       </c>
       <c r="B194" s="5">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C194" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="195">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A195" s="7">
-        <v>45901.47842575231</v>
+        <v>45901.478425752313</v>
       </c>
       <c r="B195" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C195" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="196">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A196" s="4">
         <v>45901.479960219905</v>
       </c>
       <c r="B196" s="5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C196" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="197">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A197" s="7">
         <v>45901.489407650464</v>
       </c>
       <c r="B197" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C197" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A198" s="4">
-        <v>45901.49362241898</v>
+        <v>45901.493622418981</v>
       </c>
       <c r="B198" s="5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C198" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="199">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A199" s="7">
-        <v>45901.49389506945</v>
+        <v>45901.493895069449</v>
       </c>
       <c r="B199" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C199" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="200">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A200" s="4">
-        <v>45901.49486195602</v>
+        <v>45901.494861956016</v>
       </c>
       <c r="B200" s="5">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C200" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="201">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A201" s="7">
         <v>45901.49735899306</v>
       </c>
       <c r="B201" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C201" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="202">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A202" s="4">
         <v>45901.50529288195</v>
       </c>
       <c r="B202" s="5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C202" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="203">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A203" s="7">
         <v>45901.507115949076</v>
       </c>
       <c r="B203" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C203" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A204" s="4">
-        <v>45901.50792033564</v>
+        <v>45901.507920335644</v>
       </c>
       <c r="B204" s="5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C204" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="205">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A205" s="7">
-        <v>45901.50967976852</v>
+        <v>45901.509679768518</v>
       </c>
       <c r="B205" s="8">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C205" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="206">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A206" s="4">
-        <v>45901.51258592593</v>
+        <v>45901.512585925928</v>
       </c>
       <c r="B206" s="5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C206" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A207" s="7">
         <v>45901.51297747685</v>
       </c>
       <c r="B207" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C207" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A208" s="10">
-        <v>45901.51299121528</v>
+        <v>45901.512991215277</v>
       </c>
       <c r="B208" s="11">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C208" s="12" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>